--- a/excel-filter/a.xlsx
+++ b/excel-filter/a.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teeth\github\powershell-try\excel-filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C42D1A-495C-4D62-A90B-DA3882D622DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A18B0F-FDE9-4E2C-980A-25556B78DC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3290" windowWidth="14400" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1380" windowWidth="14400" windowHeight="8710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="a" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="a" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">a!$E$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">a!$E$2:$F$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -423,11 +425,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928F4925-734F-4A4F-AC4C-AF263C04B635}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="C2:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -456,7 +474,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" hidden="1">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -468,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" hidden="1">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -501,7 +519,26 @@
       <c r="F7" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:F7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:F7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6D3CD3-FF06-45C4-A192-BA5A4E2BD781}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel-filter/a.xlsx
+++ b/excel-filter/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teeth\github\powershell-try\excel-filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A18B0F-FDE9-4E2C-980A-25556B78DC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543289BA-D48B-4CBE-B272-F3294ADA22B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1380" windowWidth="14400" windowHeight="8710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="3075" windowWidth="21600" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">a!$E$2:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">a!$F$2:$G$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>no</t>
     <phoneticPr fontId="1"/>
@@ -78,6 +78,25 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限定</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>off</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -432,7 +451,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -442,15 +461,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="C2:F7"/>
+  <dimension ref="C2:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="3:6">
+    <row r="2" spans="3:7">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,13 +477,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:7">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -473,8 +495,11 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="3:6" hidden="1">
+    <row r="4" spans="3:7" hidden="1">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -485,8 +510,9 @@
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="3:6" hidden="1">
+    <row r="5" spans="3:7" hidden="1">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -497,8 +523,9 @@
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:7" hidden="1">
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -506,21 +533,27 @@
         <v>8</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:7">
       <c r="C7" s="2">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:F7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+  <autoFilter ref="F2:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
@@ -537,7 +570,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
